--- a/doc/CLZDoctor任务.xlsx
+++ b/doc/CLZDoctor任务.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
   <si>
     <t>模块</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -157,6 +157,10 @@
   </si>
   <si>
     <t>把用户密码重置为初始密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可暂时不做</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -217,13 +221,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -532,14 +536,14 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="14.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="24.625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="24.625" style="4" customWidth="1"/>
     <col min="4" max="4" width="28.75" style="1" customWidth="1"/>
     <col min="5" max="5" width="19.75" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
@@ -552,7 +556,7 @@
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -566,13 +570,13 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -580,9 +584,9 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="5" t="s">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -590,9 +594,9 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="5" t="s">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -600,9 +604,9 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="5" t="s">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -610,11 +614,11 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="4"/>
+      <c r="A6" s="6"/>
       <c r="B6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -622,32 +626,35 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="4"/>
+      <c r="A7" s="6"/>
       <c r="B7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>15</v>
       </c>
+      <c r="E7" s="1" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="8" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="5" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="5" t="s">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D9" s="1" t="s">
@@ -655,9 +662,9 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="5" t="s">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="4" t="s">
         <v>20</v>
       </c>
       <c r="D10" s="1" t="s">
@@ -665,21 +672,21 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4" t="s">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="5" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="5" t="s">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="4" t="s">
         <v>23</v>
       </c>
       <c r="D12" s="1" t="s">
@@ -687,14 +694,14 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="4"/>
+      <c r="A13" s="6"/>
       <c r="B13" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="5" t="s">
         <v>31</v>
       </c>
     </row>
